--- a/STATS_2026.xlsx
+++ b/STATS_2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Swish Swish\UNRIVALED_STATS_PLAYER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D663DFA5-4D85-4DE3-94DA-BBEBB0125A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78269649-03C7-494C-9304-97622BD7C748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EXP" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="VINYL" sheetId="16" state="hidden" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ADVANCED!$A$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ADVANCED!$A$2:$M$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PER_GAME_BASIC!$A$2:$BN$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">TOTAL_BASIC!$A$2:$U$2</definedName>
   </definedNames>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="117">
   <si>
     <t>TOTAL_BASIC</t>
   </si>
@@ -398,6 +398,12 @@
   <si>
     <t>TOV%</t>
   </si>
+  <si>
+    <t>AST% : TOV%</t>
+  </si>
+  <si>
+    <t>AST:TOV</t>
+  </si>
 </sst>
 </file>
 
@@ -477,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -514,12 +520,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -753,7 +753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1783,9 +1783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CBD4DC-03A2-41F3-8EF7-6CF439039EA4}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S2" activeCellId="1" sqref="A2:A7 S2:U7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1857,7 +1855,12 @@
       <c r="U1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="2"/>
+      <c r="V1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -1943,6 +1946,14 @@
         <f>S2/T2</f>
         <v>0.84755127747409376</v>
       </c>
+      <c r="V2" s="9">
+        <f>100*Q2/(F2+0.44*J2+Q2)</f>
+        <v>12.669609285597515</v>
+      </c>
+      <c r="W2" s="9">
+        <f>IF(V2=0,0,S2/V2)</f>
+        <v>2.9544708483976274</v>
+      </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -2011,6 +2022,14 @@
         <f t="shared" ref="U3:U13" si="2">S3/T3</f>
         <v>0.47223710194876167</v>
       </c>
+      <c r="V3" s="9">
+        <f t="shared" ref="V3:V13" si="3">100*Q3/(F3+0.44*J3+Q3)</f>
+        <v>16.106442577030812</v>
+      </c>
+      <c r="W3" s="9">
+        <f t="shared" ref="W3:W13" si="4">IF(V3=0,0,S3/V3)</f>
+        <v>1.0659189083782168</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2079,6 +2098,14 @@
         <f t="shared" si="2"/>
         <v>0.80469407456889774</v>
       </c>
+      <c r="V4" s="9">
+        <f t="shared" si="3"/>
+        <v>8.6042065009560229</v>
+      </c>
+      <c r="W4" s="9">
+        <f t="shared" si="4"/>
+        <v>3.51292063703605</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -2147,6 +2174,14 @@
         <f t="shared" si="2"/>
         <v>0.3253405991851423</v>
       </c>
+      <c r="V5" s="9">
+        <f t="shared" si="3"/>
+        <v>17.793594306049823</v>
+      </c>
+      <c r="W5" s="9">
+        <f t="shared" si="4"/>
+        <v>0.42235056711432745</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -2215,6 +2250,14 @@
         <f t="shared" si="2"/>
         <v>0.66500411959637795</v>
       </c>
+      <c r="V6" s="9">
+        <f t="shared" si="3"/>
+        <v>23.033309709425939</v>
+      </c>
+      <c r="W6" s="9">
+        <f t="shared" si="4"/>
+        <v>0.5244322719874962</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -2282,6 +2325,14 @@
       <c r="U7" s="6">
         <f t="shared" si="2"/>
         <v>0.49386360268189977</v>
+      </c>
+      <c r="V7" s="9">
+        <f t="shared" si="3"/>
+        <v>14.064697609001406</v>
+      </c>
+      <c r="W7" s="9">
+        <f t="shared" si="4"/>
+        <v>0.83092655214391986</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
@@ -2297,6 +2348,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V8" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S9" s="9" t="e">
@@ -2311,6 +2370,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V9" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S10" s="9" t="e">
@@ -2325,6 +2392,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V10" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S11" s="9" t="e">
@@ -2339,6 +2414,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V11" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S12" s="9" t="e">
@@ -2353,6 +2436,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V12" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S13" s="9" t="e">
@@ -2367,6 +2458,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V13" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2377,67 +2476,67 @@
         <v>49</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ref="C15:R15" si="3">SUM(C2:C13)</f>
+        <f t="shared" ref="C15:R15" si="5">SUM(C2:C13)</f>
         <v>648</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>600</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>233</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>515</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>179</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>203</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>266</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>99</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>90</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>142</v>
       </c>
     </row>
@@ -2454,9 +2553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8F54CC-1EC4-4732-A549-2A9A5A00CA6C}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S2" activeCellId="1" sqref="A2:A7 S2:U7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2528,7 +2625,12 @@
       <c r="U1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="2"/>
+      <c r="V1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -2614,6 +2716,14 @@
         <f>S2/T2</f>
         <v>1.1385689188266908</v>
       </c>
+      <c r="V2" s="9">
+        <f>100*Q2/(F2+0.44*J2+Q2)</f>
+        <v>8.1528068949452592</v>
+      </c>
+      <c r="W2" s="9">
+        <f>IF(V2=0,0,S2/V2)</f>
+        <v>5.2973186830560062</v>
+      </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -2682,6 +2792,14 @@
         <f t="shared" ref="U3:U13" si="2">S3/T3</f>
         <v>0.53981066537692757</v>
       </c>
+      <c r="V3" s="9">
+        <f t="shared" ref="V3:V13" si="3">100*Q3/(F3+0.44*J3+Q3)</f>
+        <v>8.9651639344262293</v>
+      </c>
+      <c r="W3" s="9">
+        <f t="shared" ref="W3:W13" si="4">IF(V3=0,0,S3/V3)</f>
+        <v>2.1553752836806273</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -2750,6 +2868,14 @@
         <f t="shared" si="2"/>
         <v>0.95476788771367027</v>
       </c>
+      <c r="V4" s="9">
+        <f t="shared" si="3"/>
+        <v>7.1090047393364921</v>
+      </c>
+      <c r="W4" s="9">
+        <f t="shared" si="4"/>
+        <v>4.2157259164037244</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -2818,6 +2944,14 @@
         <f t="shared" si="2"/>
         <v>0.19138099096045694</v>
       </c>
+      <c r="V5" s="9">
+        <f t="shared" si="3"/>
+        <v>9.5822154082023765</v>
+      </c>
+      <c r="W5" s="9">
+        <f t="shared" si="4"/>
+        <v>0.86327917501298324</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -2886,6 +3020,14 @@
         <f t="shared" si="2"/>
         <v>1.3441232372913769</v>
       </c>
+      <c r="V6" s="9">
+        <f t="shared" si="3"/>
+        <v>12.614678899082568</v>
+      </c>
+      <c r="W6" s="9">
+        <f t="shared" si="4"/>
+        <v>2.2279363680430091</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -2952,6 +3094,14 @@
       </c>
       <c r="U7" s="6">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="9">
+        <f t="shared" si="3"/>
+        <v>12.5</v>
+      </c>
+      <c r="W7" s="9">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -2968,6 +3118,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V8" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S9" s="9" t="e">
@@ -2982,6 +3140,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V9" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S10" s="9" t="e">
@@ -2996,6 +3162,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V10" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S11" s="9" t="e">
@@ -3010,6 +3184,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V11" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S12" s="9" t="e">
@@ -3024,6 +3206,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V12" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S13" s="9" t="e">
@@ -3038,6 +3228,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V13" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3048,67 +3246,67 @@
         <v>45</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ref="C15:R15" si="3">SUM(C2:C13)</f>
+        <f t="shared" ref="C15:R15" si="5">SUM(C2:C13)</f>
         <v>669</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>648</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>252</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>529</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>177</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>47</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>196</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>247</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>137</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>30</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>128</v>
       </c>
     </row>
@@ -3125,9 +3323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{731488B2-ACCA-47FC-A788-9874047B9AA9}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S2" activeCellId="1" sqref="A2:A7 S2:U7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3199,7 +3395,12 @@
       <c r="U1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="2"/>
+      <c r="V1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -3285,6 +3486,14 @@
         <f>S2/T2</f>
         <v>0.2089020118719801</v>
       </c>
+      <c r="V2" s="9">
+        <f>100*Q2/(F2+0.44*J2+Q2)</f>
+        <v>7.0799244808055377</v>
+      </c>
+      <c r="W2" s="9">
+        <f>IF(V2=0,0,S2/V2)</f>
+        <v>1.10055711214884</v>
+      </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -3353,6 +3562,14 @@
         <f t="shared" ref="U3:U13" si="2">S3/T3</f>
         <v>0.53180226402801534</v>
       </c>
+      <c r="V3" s="9">
+        <f t="shared" ref="V3:V13" si="3">100*Q3/(F3+0.44*J3+Q3)</f>
+        <v>7.8414599372683202</v>
+      </c>
+      <c r="W3" s="9">
+        <f t="shared" ref="W3:W13" si="4">IF(V3=0,0,S3/V3)</f>
+        <v>2.1228580947515718</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -3421,6 +3638,14 @@
         <f t="shared" si="2"/>
         <v>0.78266559311841988</v>
       </c>
+      <c r="V4" s="9">
+        <f t="shared" si="3"/>
+        <v>12.026458208057726</v>
+      </c>
+      <c r="W4" s="9">
+        <f t="shared" si="4"/>
+        <v>2.3045233898305089</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -3489,6 +3714,14 @@
         <f t="shared" si="2"/>
         <v>1.6201217535873282</v>
       </c>
+      <c r="V5" s="9">
+        <f t="shared" si="3"/>
+        <v>14.211274277593558</v>
+      </c>
+      <c r="W5" s="9">
+        <f t="shared" si="4"/>
+        <v>3.51682784196263</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -3557,6 +3790,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="V6" s="9">
+        <f t="shared" si="3"/>
+        <v>19.633507853403138</v>
+      </c>
+      <c r="W6" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -3624,6 +3865,14 @@
       <c r="U7" s="6">
         <f t="shared" si="2"/>
         <v>1.1779601303373237</v>
+      </c>
+      <c r="V7" s="9">
+        <f t="shared" si="3"/>
+        <v>12.027491408934708</v>
+      </c>
+      <c r="W7" s="9">
+        <f t="shared" si="4"/>
+        <v>2.870352437788537</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
@@ -3639,6 +3888,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V8" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S9" s="9" t="e">
@@ -3653,6 +3910,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V9" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S10" s="9" t="e">
@@ -3667,6 +3932,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V10" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S11" s="9" t="e">
@@ -3681,6 +3954,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V11" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S12" s="9" t="e">
@@ -3695,6 +3976,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V12" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S13" s="9" t="e">
@@ -3709,6 +3998,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V13" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -3719,67 +4016,67 @@
         <v>47</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ref="C15:R15" si="3">SUM(C2:C13)</f>
+        <f t="shared" ref="C15:R15" si="5">SUM(C2:C13)</f>
         <v>584</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>546</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>210</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>440</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>134</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>41</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>182</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>223</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>102</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
     </row>
@@ -3811,29 +4108,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
     </row>
     <row r="2" spans="1:21" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -7639,7 +7936,7 @@
       <selection activeCell="G3" sqref="G3:I3"/>
       <selection pane="topRight" activeCell="G3" sqref="G3:I3"/>
       <selection pane="bottomLeft" activeCell="G3" sqref="G3:I3"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomRight" sqref="A1:AJ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7654,74 +7951,74 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:67" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
+      <c r="Y1" s="15"/>
+      <c r="Z1" s="15"/>
+      <c r="AA1" s="15"/>
+      <c r="AB1" s="15"/>
+      <c r="AC1" s="15"/>
+      <c r="AD1" s="15"/>
+      <c r="AE1" s="15"/>
+      <c r="AF1" s="15"/>
+      <c r="AG1" s="15"/>
+      <c r="AH1" s="15"/>
+      <c r="AI1" s="15"/>
       <c r="AJ1" s="15"/>
-      <c r="AM1" s="18" t="s">
+      <c r="AM1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="AN1" s="18"/>
-      <c r="AO1" s="18"/>
-      <c r="AP1" s="18"/>
-      <c r="AQ1" s="18"/>
-      <c r="AR1" s="18"/>
-      <c r="AS1" s="18"/>
-      <c r="AT1" s="18"/>
-      <c r="AU1" s="18"/>
-      <c r="AV1" s="18"/>
-      <c r="AW1" s="18"/>
-      <c r="AX1" s="18"/>
-      <c r="AY1" s="18"/>
-      <c r="AZ1" s="18"/>
-      <c r="BA1" s="18"/>
-      <c r="BB1" s="18"/>
-      <c r="BC1" s="18"/>
-      <c r="BD1" s="18"/>
-      <c r="BE1" s="18"/>
-      <c r="BF1" s="18"/>
-      <c r="BG1" s="18"/>
-      <c r="BH1" s="18"/>
-      <c r="BI1" s="18"/>
-      <c r="BJ1" s="18"/>
-      <c r="BK1" s="18"/>
-      <c r="BL1" s="18"/>
-      <c r="BM1" s="18"/>
-      <c r="BN1" s="18"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16"/>
+      <c r="AW1" s="16"/>
+      <c r="AX1" s="16"/>
+      <c r="AY1" s="16"/>
+      <c r="AZ1" s="16"/>
+      <c r="BA1" s="16"/>
+      <c r="BB1" s="16"/>
+      <c r="BC1" s="16"/>
+      <c r="BD1" s="16"/>
+      <c r="BE1" s="16"/>
+      <c r="BF1" s="16"/>
+      <c r="BG1" s="16"/>
+      <c r="BH1" s="16"/>
+      <c r="BI1" s="16"/>
+      <c r="BJ1" s="16"/>
+      <c r="BK1" s="16"/>
+      <c r="BL1" s="16"/>
+      <c r="BM1" s="16"/>
+      <c r="BN1" s="16"/>
       <c r="BO1" s="16"/>
     </row>
     <row r="2" spans="1:67" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -8153,7 +8450,7 @@
         <v>52</v>
       </c>
       <c r="BN3" s="4">
-        <f t="shared" ref="BN3:BO49" si="27">(PERCENTRANK(AI$3:AI$78,AI3))*100</f>
+        <f t="shared" ref="BN3:BN49" si="27">(PERCENTRANK(AI$3:AI$78,AI3))*100</f>
         <v>29.099999999999998</v>
       </c>
       <c r="BO3" s="4">
@@ -19560,8 +19857,8 @@
   </sheetData>
   <autoFilter ref="A2:BN2" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:AI1"/>
-    <mergeCell ref="AM1:BN1"/>
+    <mergeCell ref="AM1:BO1"/>
+    <mergeCell ref="A1:AJ1"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:C78">
     <cfRule type="colorScale" priority="67">
@@ -19923,6 +20220,30 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="AI3:AI78">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ3:AJ78">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color theme="0"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="AM3:AM78">
     <cfRule type="colorScale" priority="5">
       <colorScale>
@@ -20235,30 +20556,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ3:AJ78">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color theme="0"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI3:AI78">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="BN3:BN78">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -20292,35 +20589,39 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC38280-09A5-405D-93E7-135B8E0A1F5F}">
-  <dimension ref="A1:I79"/>
+  <dimension ref="A1:M79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:D1"/>
+      <selection pane="bottomRight" sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="9" width="11.7109375" customWidth="1"/>
+    <col min="2" max="11" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="G1" s="19" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="I1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-    </row>
-    <row r="2" spans="1:9" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+    </row>
+    <row r="2" spans="1:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
@@ -20333,17 +20634,29 @@
       <c r="D2" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="E2" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L2" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>67</v>
       </c>
@@ -20356,20 +20669,34 @@
       <c r="D3" s="6">
         <v>1.4558293613126492</v>
       </c>
-      <c r="G3" s="4">
+      <c r="E3" s="9">
+        <v>11.455378572987128</v>
+      </c>
+      <c r="F3" s="9">
+        <v>4.4964490807254238</v>
+      </c>
+      <c r="I3" s="4">
         <f>(PERCENTRANK(B$3:B$49,B3))*100</f>
         <v>100</v>
       </c>
-      <c r="H3" s="4">
-        <f t="shared" ref="H3:I18" si="0">(PERCENTRANK(C$3:C$49,C3))*100</f>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:K18" si="0">(PERCENTRANK(C$3:C$49,C3))*100</f>
         <v>58.599999999999994</v>
       </c>
-      <c r="I3" s="4">
+      <c r="K3" s="4">
         <f t="shared" si="0"/>
         <v>95.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L3" s="4">
+        <f>100-((PERCENTRANK(E$3:E$49,E3))*100)</f>
+        <v>37</v>
+      </c>
+      <c r="M3" s="4">
+        <f>(PERCENTRANK(F$3:F$49,F3))*100</f>
+        <v>93.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -20382,20 +20709,34 @@
       <c r="D4" s="6">
         <v>0.21443024334027497</v>
       </c>
-      <c r="G4" s="4">
-        <f t="shared" ref="G4:I50" si="1">(PERCENTRANK(B$3:B$49,B4))*100</f>
+      <c r="E4" s="9">
+        <v>16.699137211244086</v>
+      </c>
+      <c r="F4" s="9">
+        <v>0.50028161641541025</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" ref="I4:K50" si="1">(PERCENTRANK(B$3:B$49,B4))*100</f>
         <v>23.9</v>
       </c>
-      <c r="H4" s="4">
+      <c r="J4" s="4">
         <f t="shared" si="0"/>
         <v>86.9</v>
       </c>
-      <c r="I4" s="4">
+      <c r="K4" s="4">
         <f t="shared" si="0"/>
         <v>17.299999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L4" s="4">
+        <f t="shared" ref="L4:L51" si="2">100-((PERCENTRANK(E$3:E$49,E4))*100)</f>
+        <v>6.5999999999999943</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" ref="M4:M51" si="3">(PERCENTRANK(F$3:F$49,F4))*100</f>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>80</v>
       </c>
@@ -20408,20 +20749,34 @@
       <c r="D5" s="6">
         <v>0.62396735057013186</v>
       </c>
-      <c r="G5" s="4">
+      <c r="E5" s="9">
+        <v>9.7714972940469025</v>
+      </c>
+      <c r="F5" s="9">
+        <v>1.9094246506357797</v>
+      </c>
+      <c r="I5" s="4">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="H5" s="4">
+      <c r="J5" s="4">
         <f t="shared" si="0"/>
         <v>28.199999999999996</v>
       </c>
-      <c r="I5" s="4">
+      <c r="K5" s="4">
         <f t="shared" si="0"/>
         <v>54.300000000000004</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L5" s="4">
+        <f t="shared" si="2"/>
+        <v>54.4</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -20434,20 +20789,34 @@
       <c r="D6" s="6">
         <v>0.29917295809050776</v>
       </c>
-      <c r="G6" s="4">
+      <c r="E6" s="9">
+        <v>18.475750577367208</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.55331475787855477</v>
+      </c>
+      <c r="I6" s="4">
         <f t="shared" si="1"/>
         <v>28.199999999999996</v>
       </c>
-      <c r="H6" s="4">
+      <c r="J6" s="4">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="I6" s="4">
+      <c r="K6" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L6" s="4">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000028</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="3"/>
+        <v>17.299999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -20460,20 +20829,34 @@
       <c r="D7" s="6">
         <v>0.44244416361292566</v>
       </c>
-      <c r="G7" s="4">
+      <c r="E7" s="9">
+        <v>14.88095238095238</v>
+      </c>
+      <c r="F7" s="9">
+        <v>0.81555713271823993</v>
+      </c>
+      <c r="I7" s="4">
         <f t="shared" si="1"/>
         <v>36.9</v>
       </c>
-      <c r="H7" s="4">
+      <c r="J7" s="4">
         <f t="shared" si="0"/>
         <v>21.7</v>
       </c>
-      <c r="I7" s="4">
+      <c r="K7" s="4">
         <f t="shared" si="0"/>
         <v>36.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L7" s="4">
+        <f t="shared" si="2"/>
+        <v>13.099999999999994</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>112</v>
       </c>
@@ -20486,20 +20869,34 @@
       <c r="D8" s="6">
         <v>1.9133472090823087</v>
       </c>
-      <c r="G8" s="4">
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
         <f t="shared" si="1"/>
         <v>86.9</v>
       </c>
-      <c r="H8" s="4">
+      <c r="J8" s="4">
         <f t="shared" si="0"/>
         <v>2.1</v>
       </c>
-      <c r="I8" s="4">
+      <c r="K8" s="4">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L8" s="4">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>113</v>
       </c>
@@ -20512,20 +20909,34 @@
       <c r="D9" s="6">
         <v>0</v>
       </c>
-      <c r="G9" s="4">
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H9" s="4">
+      <c r="J9" s="4">
         <f t="shared" si="0"/>
         <v>39.1</v>
       </c>
-      <c r="I9" s="4">
+      <c r="K9" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L9" s="4">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -20538,20 +20949,34 @@
       <c r="D10" s="6">
         <v>0.38088716302350195</v>
       </c>
-      <c r="G10" s="4">
+      <c r="E10" s="9">
+        <v>9.895391574780886</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1.6040281576949984</v>
+      </c>
+      <c r="I10" s="4">
         <f t="shared" si="1"/>
         <v>43.4</v>
       </c>
-      <c r="H10" s="4">
+      <c r="J10" s="4">
         <f t="shared" si="0"/>
         <v>93.4</v>
       </c>
-      <c r="I10" s="4">
+      <c r="K10" s="4">
         <f t="shared" si="0"/>
         <v>34.699999999999996</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L10" s="4">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="3"/>
+        <v>45.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>79</v>
       </c>
@@ -20564,20 +20989,34 @@
       <c r="D11" s="6">
         <v>1.1426579931121774</v>
       </c>
-      <c r="G11" s="4">
+      <c r="E11" s="9">
+        <v>11.149228130360207</v>
+      </c>
+      <c r="F11" s="9">
+        <v>3.8655445646397286</v>
+      </c>
+      <c r="I11" s="4">
         <f t="shared" si="1"/>
         <v>89.1</v>
       </c>
-      <c r="H11" s="4">
+      <c r="J11" s="4">
         <f t="shared" si="0"/>
         <v>80.400000000000006</v>
       </c>
-      <c r="I11" s="4">
+      <c r="K11" s="4">
         <f t="shared" si="0"/>
         <v>82.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L11" s="4">
+        <f t="shared" si="2"/>
+        <v>39.200000000000003</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="3"/>
+        <v>82.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>90</v>
       </c>
@@ -20590,20 +21029,34 @@
       <c r="D12" s="6">
         <v>1.2957801227290424</v>
       </c>
-      <c r="G12" s="4">
+      <c r="E12" s="9">
+        <v>11.507479861910239</v>
+      </c>
+      <c r="F12" s="9">
+        <v>2.6505486040265676</v>
+      </c>
+      <c r="I12" s="4">
         <f t="shared" si="1"/>
         <v>80.400000000000006</v>
       </c>
-      <c r="H12" s="4">
+      <c r="J12" s="4">
         <f t="shared" si="0"/>
         <v>10.8</v>
       </c>
-      <c r="I12" s="4">
+      <c r="K12" s="4">
         <f t="shared" si="0"/>
         <v>91.3</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L12" s="4">
+        <f t="shared" si="2"/>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="3"/>
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>92</v>
       </c>
@@ -20616,20 +21069,34 @@
       <c r="D13" s="6">
         <v>0.25023710771661295</v>
       </c>
-      <c r="G13" s="4">
+      <c r="E13" s="9">
+        <v>15.706806282722512</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.43233033334620885</v>
+      </c>
+      <c r="I13" s="4">
         <f t="shared" si="1"/>
         <v>15.2</v>
       </c>
-      <c r="H13" s="4">
+      <c r="J13" s="4">
         <f t="shared" si="0"/>
         <v>19.5</v>
       </c>
-      <c r="I13" s="4">
+      <c r="K13" s="4">
         <f t="shared" si="0"/>
         <v>21.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L13" s="4">
+        <f t="shared" si="2"/>
+        <v>10.900000000000006</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="3"/>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -20642,20 +21109,34 @@
       <c r="D14" s="6">
         <v>1.2440274710141157</v>
       </c>
-      <c r="G14" s="4">
+      <c r="E14" s="9">
+        <v>7.5037518759379696</v>
+      </c>
+      <c r="F14" s="9">
+        <v>6.0793324922377607</v>
+      </c>
+      <c r="I14" s="4">
         <f t="shared" si="1"/>
         <v>95.6</v>
       </c>
-      <c r="H14" s="4">
+      <c r="J14" s="4">
         <f t="shared" si="0"/>
         <v>71.7</v>
       </c>
-      <c r="I14" s="4">
+      <c r="K14" s="4">
         <f t="shared" si="0"/>
         <v>84.7</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L14" s="4">
+        <f t="shared" si="2"/>
+        <v>80.5</v>
+      </c>
+      <c r="M14" s="4">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>98</v>
       </c>
@@ -20668,20 +21149,34 @@
       <c r="D15" s="6">
         <v>0.20710186117068238</v>
       </c>
-      <c r="G15" s="4">
+      <c r="E15" s="9">
+        <v>9.0579710144927539</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.7257888635428742</v>
+      </c>
+      <c r="I15" s="4">
         <f t="shared" si="1"/>
         <v>10.8</v>
       </c>
-      <c r="H15" s="4">
+      <c r="J15" s="4">
         <f t="shared" si="0"/>
         <v>45.6</v>
       </c>
-      <c r="I15" s="4">
+      <c r="K15" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L15" s="4">
+        <f t="shared" si="2"/>
+        <v>65.300000000000011</v>
+      </c>
+      <c r="M15" s="4">
+        <f t="shared" si="3"/>
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -20694,20 +21189,34 @@
       <c r="D16" s="6">
         <v>0.74186770679863201</v>
       </c>
-      <c r="G16" s="4">
+      <c r="E16" s="9">
+        <v>7.6103500761035008</v>
+      </c>
+      <c r="F16" s="9">
+        <v>4.0697485384800194</v>
+      </c>
+      <c r="I16" s="4">
         <f t="shared" si="1"/>
         <v>82.6</v>
       </c>
-      <c r="H16" s="4">
+      <c r="J16" s="4">
         <f t="shared" si="0"/>
         <v>95.6</v>
       </c>
-      <c r="I16" s="4">
+      <c r="K16" s="4">
         <f t="shared" si="0"/>
         <v>67.300000000000011</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L16" s="4">
+        <f t="shared" si="2"/>
+        <v>78.3</v>
+      </c>
+      <c r="M16" s="4">
+        <f t="shared" si="3"/>
+        <v>89.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -20720,20 +21229,34 @@
       <c r="D17" s="6">
         <v>0.5868421396786655</v>
       </c>
-      <c r="G17" s="4">
+      <c r="E17" s="9">
+        <v>9.5654550423613003</v>
+      </c>
+      <c r="F17" s="9">
+        <v>2.3774269989298276</v>
+      </c>
+      <c r="I17" s="4">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="H17" s="4">
+      <c r="J17" s="4">
         <f t="shared" si="0"/>
         <v>84.7</v>
       </c>
-      <c r="I17" s="4">
+      <c r="K17" s="4">
         <f t="shared" si="0"/>
         <v>52.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L17" s="4">
+        <f t="shared" si="2"/>
+        <v>60.9</v>
+      </c>
+      <c r="M17" s="4">
+        <f t="shared" si="3"/>
+        <v>65.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>83</v>
       </c>
@@ -20746,20 +21269,34 @@
       <c r="D18" s="6">
         <v>0.63436041957177647</v>
       </c>
-      <c r="G18" s="4">
+      <c r="E18" s="9">
+        <v>9.6053091163115614</v>
+      </c>
+      <c r="F18" s="9">
+        <v>2.3918897547601365</v>
+      </c>
+      <c r="I18" s="4">
         <f t="shared" si="1"/>
         <v>65.2</v>
       </c>
-      <c r="H18" s="4">
+      <c r="J18" s="4">
         <f t="shared" si="0"/>
         <v>67.300000000000011</v>
       </c>
-      <c r="I18" s="4">
+      <c r="K18" s="4">
         <f t="shared" si="0"/>
         <v>56.499999999999993</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L18" s="4">
+        <f t="shared" si="2"/>
+        <v>56.6</v>
+      </c>
+      <c r="M18" s="4">
+        <f t="shared" si="3"/>
+        <v>67.300000000000011</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>95</v>
       </c>
@@ -20772,20 +21309,34 @@
       <c r="D19" s="6">
         <v>1.2527911078324891</v>
       </c>
-      <c r="G19" s="4">
+      <c r="E19" s="9">
+        <v>6.7713976164680387</v>
+      </c>
+      <c r="F19" s="9">
+        <v>3.988090591385649</v>
+      </c>
+      <c r="I19" s="4">
         <f t="shared" si="1"/>
         <v>69.5</v>
       </c>
-      <c r="H19" s="4">
+      <c r="J19" s="4">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-      <c r="I19" s="4">
+      <c r="K19" s="4">
         <f t="shared" si="1"/>
         <v>86.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L19" s="4">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="M19" s="4">
+        <f t="shared" si="3"/>
+        <v>86.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>103</v>
       </c>
@@ -20798,20 +21349,34 @@
       <c r="D20" s="6">
         <v>0.20407005170407611</v>
       </c>
-      <c r="G20" s="4">
+      <c r="E20" s="9">
+        <v>9.4197437829691033</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0.61369130125008098</v>
+      </c>
+      <c r="I20" s="4">
         <f t="shared" si="1"/>
         <v>8.6</v>
       </c>
-      <c r="H20" s="4">
+      <c r="J20" s="4">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="I20" s="4">
+      <c r="K20" s="4">
         <f t="shared" si="1"/>
         <v>10.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L20" s="4">
+        <f t="shared" si="2"/>
+        <v>63.1</v>
+      </c>
+      <c r="M20" s="4">
+        <f t="shared" si="3"/>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>107</v>
       </c>
@@ -20824,20 +21389,34 @@
       <c r="D21" s="6">
         <v>0.19753931985440024</v>
       </c>
-      <c r="G21" s="4">
+      <c r="E21" s="9">
+        <v>5.6818181818181817</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.870816182279323</v>
+      </c>
+      <c r="I21" s="4">
         <f t="shared" si="1"/>
         <v>4.3</v>
       </c>
-      <c r="H21" s="4">
+      <c r="J21" s="4">
         <f t="shared" si="1"/>
         <v>17.299999999999997</v>
       </c>
-      <c r="I21" s="4">
+      <c r="K21" s="4">
         <f t="shared" si="1"/>
         <v>8.6</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L21" s="4">
+        <f t="shared" si="2"/>
+        <v>91.4</v>
+      </c>
+      <c r="M21" s="4">
+        <f t="shared" si="3"/>
+        <v>32.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>66</v>
       </c>
@@ -20850,20 +21429,34 @@
       <c r="D22" s="6">
         <v>1.2556504228823715</v>
       </c>
-      <c r="G22" s="4">
+      <c r="E22" s="9">
+        <v>11.122881355932202</v>
+      </c>
+      <c r="F22" s="9">
+        <v>3.9690276430188534</v>
+      </c>
+      <c r="I22" s="4">
         <f t="shared" si="1"/>
         <v>93.4</v>
       </c>
-      <c r="H22" s="4">
+      <c r="J22" s="4">
         <f t="shared" si="1"/>
         <v>56.499999999999993</v>
       </c>
-      <c r="I22" s="4">
+      <c r="K22" s="4">
         <f t="shared" si="1"/>
         <v>89.1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L22" s="4">
+        <f t="shared" si="2"/>
+        <v>41.400000000000006</v>
+      </c>
+      <c r="M22" s="4">
+        <f t="shared" si="3"/>
+        <v>84.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>77</v>
       </c>
@@ -20876,20 +21469,34 @@
       <c r="D23" s="6">
         <v>0.34754624701456105</v>
       </c>
-      <c r="G23" s="4">
+      <c r="E23" s="9">
+        <v>10.420006412311638</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1.1507976125881718</v>
+      </c>
+      <c r="I23" s="4">
         <f t="shared" si="1"/>
         <v>32.6</v>
       </c>
-      <c r="H23" s="4">
+      <c r="J23" s="4">
         <f t="shared" si="1"/>
         <v>52.1</v>
       </c>
-      <c r="I23" s="4">
+      <c r="K23" s="4">
         <f t="shared" si="1"/>
         <v>30.4</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L23" s="4">
+        <f t="shared" si="2"/>
+        <v>45.699999999999996</v>
+      </c>
+      <c r="M23" s="4">
+        <f t="shared" si="3"/>
+        <v>41.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>82</v>
       </c>
@@ -20902,20 +21509,34 @@
       <c r="D24" s="6">
         <v>0.15605897614101033</v>
       </c>
-      <c r="G24" s="4">
+      <c r="E24" s="9">
+        <v>2.9423303256178897</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1.8556119654952341</v>
+      </c>
+      <c r="I24" s="4">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-      <c r="H24" s="4">
+      <c r="J24" s="4">
         <f t="shared" si="1"/>
         <v>54.300000000000004</v>
       </c>
-      <c r="I24" s="4">
+      <c r="K24" s="4">
         <f t="shared" si="1"/>
         <v>4.3</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L24" s="4">
+        <f t="shared" si="2"/>
+        <v>95.7</v>
+      </c>
+      <c r="M24" s="4">
+        <f t="shared" si="3"/>
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>91</v>
       </c>
@@ -20928,20 +21549,34 @@
       <c r="D25" s="6">
         <v>0.51580363105729654</v>
       </c>
-      <c r="G25" s="4">
+      <c r="E25" s="9">
+        <v>5.8768218147625761</v>
+      </c>
+      <c r="F25" s="9">
+        <v>3.2943810775295663</v>
+      </c>
+      <c r="I25" s="4">
         <f t="shared" si="1"/>
         <v>54.300000000000004</v>
       </c>
-      <c r="H25" s="4">
+      <c r="J25" s="4">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="I25" s="4">
+      <c r="K25" s="4">
         <f t="shared" si="1"/>
         <v>45.6</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L25" s="4">
+        <f t="shared" si="2"/>
+        <v>89.2</v>
+      </c>
+      <c r="M25" s="4">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>106</v>
       </c>
@@ -20954,20 +21589,34 @@
       <c r="D26" s="6">
         <v>0.92955922040269834</v>
       </c>
-      <c r="G26" s="4">
+      <c r="E26" s="9">
+        <v>4.6040515653775325</v>
+      </c>
+      <c r="F26" s="9">
+        <v>5.6037980348282899</v>
+      </c>
+      <c r="I26" s="4">
         <f t="shared" si="1"/>
         <v>67.300000000000011</v>
       </c>
-      <c r="H26" s="4">
+      <c r="J26" s="4">
         <f t="shared" si="1"/>
         <v>23.9</v>
       </c>
-      <c r="I26" s="4">
+      <c r="K26" s="4">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L26" s="4">
+        <f t="shared" si="2"/>
+        <v>93.5</v>
+      </c>
+      <c r="M26" s="4">
+        <f t="shared" si="3"/>
+        <v>97.8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -20980,20 +21629,34 @@
       <c r="D27" s="6">
         <v>0.27654074222874886</v>
       </c>
-      <c r="G27" s="4">
+      <c r="E27" s="9">
+        <v>13.37920489296636</v>
+      </c>
+      <c r="F27" s="9">
+        <v>0.50094533355284254</v>
+      </c>
+      <c r="I27" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="H27" s="4">
+      <c r="J27" s="4">
         <f t="shared" si="1"/>
         <v>15.2</v>
       </c>
-      <c r="I27" s="4">
+      <c r="K27" s="4">
         <f t="shared" si="1"/>
         <v>23.9</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L27" s="4">
+        <f t="shared" si="2"/>
+        <v>19.599999999999994</v>
+      </c>
+      <c r="M27" s="4">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -21006,20 +21669,34 @@
       <c r="D28" s="6">
         <v>0.66936940047532856</v>
       </c>
-      <c r="G28" s="4">
+      <c r="E28" s="9">
+        <v>8.2209799408089452</v>
+      </c>
+      <c r="F28" s="9">
+        <v>2.5666837092349892</v>
+      </c>
+      <c r="I28" s="4">
         <f t="shared" si="1"/>
         <v>56.499999999999993</v>
       </c>
-      <c r="H28" s="4">
+      <c r="J28" s="4">
         <f t="shared" si="1"/>
         <v>41.3</v>
       </c>
-      <c r="I28" s="4">
+      <c r="K28" s="4">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L28" s="4">
+        <f t="shared" si="2"/>
+        <v>71.800000000000011</v>
+      </c>
+      <c r="M28" s="4">
+        <f t="shared" si="3"/>
+        <v>69.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>81</v>
       </c>
@@ -21032,20 +21709,34 @@
       <c r="D29" s="6">
         <v>0.65833713263895555</v>
       </c>
-      <c r="G29" s="4">
-        <f t="shared" si="1"/>
-        <v>58.599999999999994</v>
-      </c>
-      <c r="H29" s="4">
-        <f t="shared" si="1"/>
-        <v>47.8</v>
+      <c r="E29" s="9">
+        <v>9.8135426889106974</v>
+      </c>
+      <c r="F29" s="9">
+        <v>2.1897804184511691</v>
       </c>
       <c r="I29" s="4">
         <f t="shared" si="1"/>
         <v>58.599999999999994</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="4">
+        <f t="shared" si="1"/>
+        <v>47.8</v>
+      </c>
+      <c r="K29" s="4">
+        <f t="shared" si="1"/>
+        <v>58.599999999999994</v>
+      </c>
+      <c r="L29" s="4">
+        <f t="shared" si="2"/>
+        <v>52.2</v>
+      </c>
+      <c r="M29" s="4">
+        <f t="shared" si="3"/>
+        <v>56.499999999999993</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>84</v>
       </c>
@@ -21058,20 +21749,34 @@
       <c r="D30" s="6">
         <v>0.22539795488087708</v>
       </c>
-      <c r="G30" s="4">
+      <c r="E30" s="9">
+        <v>10.893246187363834</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.80926512096774206</v>
+      </c>
+      <c r="I30" s="4">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="H30" s="4">
+      <c r="J30" s="4">
         <f t="shared" si="1"/>
         <v>89.1</v>
       </c>
-      <c r="I30" s="4">
+      <c r="K30" s="4">
         <f t="shared" si="1"/>
         <v>19.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L30" s="4">
+        <f t="shared" si="2"/>
+        <v>43.500000000000007</v>
+      </c>
+      <c r="M30" s="4">
+        <f t="shared" si="3"/>
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -21084,20 +21789,34 @@
       <c r="D31" s="6">
         <v>0.46436384812290277</v>
       </c>
-      <c r="G31" s="4">
+      <c r="E31" s="9">
+        <v>11.7096018735363</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1.1875539654144305</v>
+      </c>
+      <c r="I31" s="4">
         <f t="shared" si="1"/>
         <v>41.3</v>
       </c>
-      <c r="H31" s="4">
+      <c r="J31" s="4">
         <f t="shared" si="1"/>
         <v>30.4</v>
       </c>
-      <c r="I31" s="4">
+      <c r="K31" s="4">
         <f t="shared" si="1"/>
         <v>39.1</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L31" s="4">
+        <f t="shared" si="2"/>
+        <v>32.699999999999989</v>
+      </c>
+      <c r="M31" s="4">
+        <f t="shared" si="3"/>
+        <v>43.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>104</v>
       </c>
@@ -21110,20 +21829,34 @@
       <c r="D32" s="6">
         <v>0.71198831043259203</v>
       </c>
-      <c r="G32" s="4">
+      <c r="E32" s="9">
+        <v>10.211027910142954</v>
+      </c>
+      <c r="F32" s="9">
+        <v>2.2040198159943385</v>
+      </c>
+      <c r="I32" s="4">
         <f t="shared" si="1"/>
         <v>60.8</v>
       </c>
-      <c r="H32" s="4">
+      <c r="J32" s="4">
         <f t="shared" si="1"/>
         <v>43.4</v>
       </c>
-      <c r="I32" s="4">
+      <c r="K32" s="4">
         <f t="shared" si="1"/>
         <v>65.2</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L32" s="4">
+        <f t="shared" si="2"/>
+        <v>47.9</v>
+      </c>
+      <c r="M32" s="4">
+        <f t="shared" si="3"/>
+        <v>58.599999999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>105</v>
       </c>
@@ -21136,20 +21869,34 @@
       <c r="D33" s="6">
         <v>0.36864933515500226</v>
       </c>
-      <c r="G33" s="4">
+      <c r="E33" s="9">
+        <v>12.084592145015105</v>
+      </c>
+      <c r="F33" s="9">
+        <v>1.086349964614296</v>
+      </c>
+      <c r="I33" s="4">
         <f t="shared" si="1"/>
         <v>39.1</v>
       </c>
-      <c r="H33" s="4">
+      <c r="J33" s="4">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
-      <c r="I33" s="4">
+      <c r="K33" s="4">
         <f t="shared" si="1"/>
         <v>32.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L33" s="4">
+        <f t="shared" si="2"/>
+        <v>28.299999999999997</v>
+      </c>
+      <c r="M33" s="4">
+        <f t="shared" si="3"/>
+        <v>36.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -21162,20 +21909,34 @@
       <c r="D34" s="6">
         <v>0.84755127747409376</v>
       </c>
-      <c r="G34" s="4">
+      <c r="E34" s="9">
+        <v>12.669609285597515</v>
+      </c>
+      <c r="F34" s="9">
+        <v>2.9544708483976274</v>
+      </c>
+      <c r="I34" s="4">
         <f t="shared" si="1"/>
         <v>84.7</v>
       </c>
-      <c r="H34" s="4">
+      <c r="J34" s="4">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="I34" s="4">
+      <c r="K34" s="4">
         <f t="shared" si="1"/>
         <v>73.900000000000006</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L34" s="4">
+        <f t="shared" si="2"/>
+        <v>21.799999999999997</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" si="3"/>
+        <v>73.900000000000006</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -21188,20 +21949,34 @@
       <c r="D35" s="6">
         <v>0.47223710194876167</v>
       </c>
-      <c r="G35" s="4">
+      <c r="E35" s="9">
+        <v>16.106442577030812</v>
+      </c>
+      <c r="F35" s="9">
+        <v>1.0659189083782168</v>
+      </c>
+      <c r="I35" s="4">
         <f t="shared" si="1"/>
         <v>47.8</v>
       </c>
-      <c r="H35" s="4">
+      <c r="J35" s="4">
         <f t="shared" si="1"/>
         <v>69.5</v>
       </c>
-      <c r="I35" s="4">
+      <c r="K35" s="4">
         <f t="shared" si="1"/>
         <v>41.3</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L35" s="4">
+        <f t="shared" si="2"/>
+        <v>8.7000000000000028</v>
+      </c>
+      <c r="M35" s="4">
+        <f t="shared" si="3"/>
+        <v>34.699999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -21214,20 +21989,34 @@
       <c r="D36" s="6">
         <v>0.80469407456889774</v>
       </c>
-      <c r="G36" s="4">
+      <c r="E36" s="9">
+        <v>8.6042065009560229</v>
+      </c>
+      <c r="F36" s="9">
+        <v>3.51292063703605</v>
+      </c>
+      <c r="I36" s="4">
         <f t="shared" si="1"/>
         <v>78.2</v>
       </c>
-      <c r="H36" s="4">
+      <c r="J36" s="4">
         <f t="shared" si="1"/>
         <v>78.2</v>
       </c>
-      <c r="I36" s="4">
+      <c r="K36" s="4">
         <f t="shared" si="1"/>
         <v>71.7</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L36" s="4">
+        <f t="shared" si="2"/>
+        <v>69.599999999999994</v>
+      </c>
+      <c r="M36" s="4">
+        <f t="shared" si="3"/>
+        <v>78.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -21240,20 +22029,34 @@
       <c r="D37" s="6">
         <v>0.3253405991851423</v>
       </c>
-      <c r="G37" s="4">
+      <c r="E37" s="9">
+        <v>17.793594306049823</v>
+      </c>
+      <c r="F37" s="9">
+        <v>0.42235056711432745</v>
+      </c>
+      <c r="I37" s="4">
         <f t="shared" si="1"/>
         <v>17.299999999999997</v>
       </c>
-      <c r="H37" s="4">
+      <c r="J37" s="4">
         <f t="shared" si="1"/>
         <v>8.6</v>
       </c>
-      <c r="I37" s="4">
+      <c r="K37" s="4">
         <f t="shared" si="1"/>
         <v>28.199999999999996</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L37" s="4">
+        <f t="shared" si="2"/>
+        <v>4.4000000000000057</v>
+      </c>
+      <c r="M37" s="4">
+        <f t="shared" si="3"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>108</v>
       </c>
@@ -21266,20 +22069,34 @@
       <c r="D38" s="6">
         <v>0.66500411959637795</v>
       </c>
-      <c r="G38" s="4">
+      <c r="E38" s="9">
+        <v>23.033309709425939</v>
+      </c>
+      <c r="F38" s="9">
+        <v>0.5244322719874962</v>
+      </c>
+      <c r="I38" s="4">
         <f t="shared" si="1"/>
         <v>34.699999999999996</v>
       </c>
-      <c r="H38" s="4">
+      <c r="J38" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I38" s="4">
+      <c r="K38" s="4">
         <f t="shared" si="1"/>
         <v>60.8</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L38" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" si="3"/>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>110</v>
       </c>
@@ -21292,20 +22109,34 @@
       <c r="D39" s="6">
         <v>0.49386360268189977</v>
       </c>
-      <c r="G39" s="4">
+      <c r="E39" s="9">
+        <v>14.064697609001406</v>
+      </c>
+      <c r="F39" s="9">
+        <v>0.83092655214391986</v>
+      </c>
+      <c r="I39" s="4">
         <f t="shared" si="1"/>
         <v>30.4</v>
       </c>
-      <c r="H39" s="4">
+      <c r="J39" s="4">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="I39" s="4">
+      <c r="K39" s="4">
         <f t="shared" si="1"/>
         <v>43.4</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L39" s="4">
+        <f t="shared" si="2"/>
+        <v>17.400000000000006</v>
+      </c>
+      <c r="M39" s="4">
+        <f t="shared" si="3"/>
+        <v>28.199999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -21318,20 +22149,34 @@
       <c r="D40" s="6">
         <v>1.1385689188266908</v>
       </c>
-      <c r="G40" s="4">
+      <c r="E40" s="9">
+        <v>8.1528068949452592</v>
+      </c>
+      <c r="F40" s="9">
+        <v>5.2973186830560062</v>
+      </c>
+      <c r="I40" s="4">
         <f t="shared" si="1"/>
         <v>91.3</v>
       </c>
-      <c r="H40" s="4">
+      <c r="J40" s="4">
         <f t="shared" si="1"/>
         <v>82.6</v>
       </c>
-      <c r="I40" s="4">
+      <c r="K40" s="4">
         <f t="shared" si="1"/>
         <v>80.400000000000006</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L40" s="4">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="M40" s="4">
+        <f t="shared" si="3"/>
+        <v>95.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -21344,20 +22189,34 @@
       <c r="D41" s="6">
         <v>0.53981066537692757</v>
       </c>
-      <c r="G41" s="4">
+      <c r="E41" s="9">
+        <v>8.9651639344262293</v>
+      </c>
+      <c r="F41" s="9">
+        <v>2.1553752836806273</v>
+      </c>
+      <c r="I41" s="4">
         <f t="shared" si="1"/>
         <v>52.1</v>
       </c>
-      <c r="H41" s="4">
+      <c r="J41" s="4">
         <f t="shared" si="1"/>
         <v>65.2</v>
       </c>
-      <c r="I41" s="4">
+      <c r="K41" s="4">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L41" s="4">
+        <f t="shared" si="2"/>
+        <v>67.400000000000006</v>
+      </c>
+      <c r="M41" s="4">
+        <f t="shared" si="3"/>
+        <v>54.300000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>85</v>
       </c>
@@ -21370,20 +22229,34 @@
       <c r="D42" s="6">
         <v>0.95476788771367027</v>
       </c>
-      <c r="G42" s="4">
+      <c r="E42" s="9">
+        <v>7.1090047393364921</v>
+      </c>
+      <c r="F42" s="9">
+        <v>4.2157259164037244</v>
+      </c>
+      <c r="I42" s="4">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="H42" s="4">
+      <c r="J42" s="4">
         <f t="shared" si="1"/>
         <v>36.9</v>
       </c>
-      <c r="I42" s="4">
+      <c r="K42" s="4">
         <f t="shared" si="1"/>
         <v>78.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L42" s="4">
+        <f t="shared" si="2"/>
+        <v>82.7</v>
+      </c>
+      <c r="M42" s="4">
+        <f t="shared" si="3"/>
+        <v>91.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>86</v>
       </c>
@@ -21396,20 +22269,34 @@
       <c r="D43" s="6">
         <v>0.19138099096045694</v>
       </c>
-      <c r="G43" s="4">
+      <c r="E43" s="9">
+        <v>9.5822154082023765</v>
+      </c>
+      <c r="F43" s="9">
+        <v>0.86327917501298324</v>
+      </c>
+      <c r="I43" s="4">
         <f t="shared" si="1"/>
         <v>21.7</v>
       </c>
-      <c r="H43" s="4">
+      <c r="J43" s="4">
         <f t="shared" si="1"/>
         <v>97.8</v>
       </c>
-      <c r="I43" s="4">
+      <c r="K43" s="4">
         <f t="shared" si="1"/>
         <v>6.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L43" s="4">
+        <f t="shared" si="2"/>
+        <v>58.7</v>
+      </c>
+      <c r="M43" s="4">
+        <f t="shared" si="3"/>
+        <v>30.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>89</v>
       </c>
@@ -21422,20 +22309,34 @@
       <c r="D44" s="6">
         <v>1.3441232372913769</v>
       </c>
-      <c r="G44" s="4">
+      <c r="E44" s="9">
+        <v>12.614678899082568</v>
+      </c>
+      <c r="F44" s="9">
+        <v>2.2279363680430091</v>
+      </c>
+      <c r="I44" s="4">
         <f t="shared" si="1"/>
         <v>73.900000000000006</v>
       </c>
-      <c r="H44" s="4">
+      <c r="J44" s="4">
         <f t="shared" si="1"/>
         <v>4.3</v>
       </c>
-      <c r="I44" s="4">
+      <c r="K44" s="4">
         <f t="shared" si="1"/>
         <v>93.4</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L44" s="4">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="M44" s="4">
+        <f t="shared" si="3"/>
+        <v>60.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>111</v>
       </c>
@@ -21448,20 +22349,34 @@
       <c r="D45" s="6">
         <v>0</v>
       </c>
-      <c r="G45" s="4">
-        <f t="shared" si="1"/>
+      <c r="E45" s="9">
+        <v>12.5</v>
+      </c>
+      <c r="F45" s="9">
         <v>0</v>
-      </c>
-      <c r="H45" s="4">
-        <f t="shared" si="1"/>
-        <v>91.3</v>
       </c>
       <c r="I45" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="4">
+        <f t="shared" si="1"/>
+        <v>91.3</v>
+      </c>
+      <c r="K45" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
+        <f t="shared" si="2"/>
+        <v>26.099999999999994</v>
+      </c>
+      <c r="M45" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -21474,20 +22389,34 @@
       <c r="D46" s="6">
         <v>0.2089020118719801</v>
       </c>
-      <c r="G46" s="4">
+      <c r="E46" s="9">
+        <v>7.0799244808055377</v>
+      </c>
+      <c r="F46" s="9">
+        <v>1.10055711214884</v>
+      </c>
+      <c r="I46" s="4">
         <f t="shared" si="1"/>
         <v>19.5</v>
       </c>
-      <c r="H46" s="4">
+      <c r="J46" s="4">
         <f t="shared" si="1"/>
         <v>73.900000000000006</v>
       </c>
-      <c r="I46" s="4">
+      <c r="K46" s="4">
         <f t="shared" si="1"/>
         <v>15.2</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L46" s="4">
+        <f t="shared" si="2"/>
+        <v>84.8</v>
+      </c>
+      <c r="M46" s="4">
+        <f t="shared" si="3"/>
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>75</v>
       </c>
@@ -21500,20 +22429,34 @@
       <c r="D47" s="6">
         <v>0.53180226402801534</v>
       </c>
-      <c r="G47" s="4">
+      <c r="E47" s="9">
+        <v>7.8414599372683202</v>
+      </c>
+      <c r="F47" s="9">
+        <v>2.1228580947515718</v>
+      </c>
+      <c r="I47" s="4">
         <f t="shared" si="1"/>
         <v>45.6</v>
       </c>
-      <c r="H47" s="4">
+      <c r="J47" s="4">
         <f t="shared" si="1"/>
         <v>34.699999999999996</v>
       </c>
-      <c r="I47" s="4">
+      <c r="K47" s="4">
         <f t="shared" si="1"/>
         <v>47.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L47" s="4">
+        <f t="shared" si="2"/>
+        <v>76.099999999999994</v>
+      </c>
+      <c r="M47" s="4">
+        <f t="shared" si="3"/>
+        <v>52.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -21526,20 +22469,34 @@
       <c r="D48" s="6">
         <v>0.78266559311841988</v>
       </c>
-      <c r="G48" s="4">
+      <c r="E48" s="9">
+        <v>12.026458208057726</v>
+      </c>
+      <c r="F48" s="9">
+        <v>2.3045233898305089</v>
+      </c>
+      <c r="I48" s="4">
         <f t="shared" si="1"/>
         <v>71.7</v>
       </c>
-      <c r="H48" s="4">
+      <c r="J48" s="4">
         <f t="shared" si="1"/>
         <v>60.8</v>
       </c>
-      <c r="I48" s="4">
+      <c r="K48" s="4">
         <f t="shared" si="1"/>
         <v>69.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L48" s="4">
+        <f t="shared" si="2"/>
+        <v>30.5</v>
+      </c>
+      <c r="M48" s="4">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>96</v>
       </c>
@@ -21552,20 +22509,34 @@
       <c r="D49" s="6">
         <v>1.6201217535873282</v>
       </c>
-      <c r="G49" s="4">
-        <f t="shared" si="1"/>
-        <v>97.8</v>
-      </c>
-      <c r="H49" s="4">
-        <f t="shared" si="1"/>
-        <v>32.6</v>
+      <c r="E49" s="9">
+        <v>14.211274277593558</v>
+      </c>
+      <c r="F49" s="9">
+        <v>3.51682784196263</v>
       </c>
       <c r="I49" s="4">
         <f t="shared" si="1"/>
         <v>97.8</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="4">
+        <f t="shared" si="1"/>
+        <v>32.6</v>
+      </c>
+      <c r="K49" s="4">
+        <f t="shared" si="1"/>
+        <v>97.8</v>
+      </c>
+      <c r="L49" s="4">
+        <f t="shared" si="2"/>
+        <v>15.299999999999997</v>
+      </c>
+      <c r="M49" s="4">
+        <f t="shared" si="3"/>
+        <v>80.400000000000006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>99</v>
       </c>
@@ -21578,20 +22549,34 @@
       <c r="D50" s="6">
         <v>0</v>
       </c>
-      <c r="G50" s="4">
-        <f t="shared" si="1"/>
+      <c r="E50" s="9">
+        <v>19.633507853403138</v>
+      </c>
+      <c r="F50" s="9">
         <v>0</v>
-      </c>
-      <c r="H50" s="4">
-        <f t="shared" si="1"/>
-        <v>85.5</v>
       </c>
       <c r="I50" s="4">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="4">
+        <f t="shared" si="1"/>
+        <v>85.5</v>
+      </c>
+      <c r="K50" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L50" s="4">
+        <f t="shared" si="2"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="M50" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>101</v>
       </c>
@@ -21604,194 +22589,256 @@
       <c r="D51" s="6">
         <v>1.1779601303373237</v>
       </c>
-      <c r="G51" s="4">
-        <f t="shared" ref="G51:I51" si="2">(PERCENTRANK(B$3:B$49,B51))*100</f>
+      <c r="E51" s="9">
+        <v>12.027491408934708</v>
+      </c>
+      <c r="F51" s="9">
+        <v>2.870352437788537</v>
+      </c>
+      <c r="I51" s="4">
+        <f t="shared" ref="I51:K51" si="4">(PERCENTRANK(B$3:B$49,B51))*100</f>
         <v>83.8</v>
       </c>
-      <c r="H51" s="4">
+      <c r="J51" s="4">
+        <f t="shared" si="4"/>
+        <v>27.400000000000002</v>
+      </c>
+      <c r="K51" s="4">
+        <f t="shared" si="4"/>
+        <v>83.3</v>
+      </c>
+      <c r="L51" s="4">
         <f t="shared" si="2"/>
-        <v>27.400000000000002</v>
-      </c>
-      <c r="I51" s="4">
-        <f t="shared" si="2"/>
-        <v>83.3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30.400000000000006</v>
+      </c>
+      <c r="M51" s="4">
+        <f t="shared" si="3"/>
+        <v>73.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="6"/>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="6"/>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="6"/>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="6"/>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="6"/>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="6"/>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="6"/>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="6"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="6"/>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="6"/>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="6"/>
-      <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="6"/>
-      <c r="G63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="6"/>
-      <c r="G64" s="2"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="6"/>
-      <c r="G65" s="2"/>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="6"/>
-      <c r="G66" s="2"/>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="6"/>
-      <c r="G67" s="2"/>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="6"/>
-      <c r="G68" s="2"/>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="6"/>
-      <c r="G69" s="2"/>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="6"/>
-      <c r="G70" s="2"/>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="6"/>
-      <c r="G71" s="2"/>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
       <c r="D72" s="6"/>
-      <c r="G72" s="2"/>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
       <c r="D73" s="6"/>
-      <c r="G73" s="2"/>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
       <c r="D74" s="6"/>
-      <c r="G74" s="2"/>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="6"/>
-      <c r="G75" s="2"/>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="6"/>
-      <c r="G76" s="2"/>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="6"/>
-      <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="6"/>
-      <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="6"/>
-      <c r="G79" s="2"/>
+      <c r="I79" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:I2" xr:uid="{ABC38280-09A5-405D-93E7-135B8E0A1F5F}"/>
+  <autoFilter ref="A2:M2" xr:uid="{ABC38280-09A5-405D-93E7-135B8E0A1F5F}"/>
   <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <conditionalFormatting sqref="B3:B53">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C53">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D53">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I53">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color theme="0"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J53">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -21803,7 +22850,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C53">
+  <conditionalFormatting sqref="K3:K53">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -21815,7 +22862,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D53">
+  <conditionalFormatting sqref="L3:L78">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -21827,7 +22874,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G53">
+  <conditionalFormatting sqref="M3:M76">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -21839,19 +22886,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3:H53">
+  <conditionalFormatting sqref="E3:E76">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color theme="0"/>
         <color rgb="FFF8696B"/>
-        <color theme="0"/>
-        <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3:I53">
+  <conditionalFormatting sqref="F3:F72">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -21864,6 +22911,9 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="L3:L51" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -21877,6 +22927,7 @@
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="2" max="21" width="7.7109375" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" x14ac:dyDescent="0.25">
@@ -21943,7 +22994,12 @@
       <c r="U1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="2"/>
+      <c r="V1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -22029,6 +23085,14 @@
         <f>S2/T2</f>
         <v>1.4558293613126492</v>
       </c>
+      <c r="V2" s="9">
+        <f>100*Q2/(F2+0.44*J2+Q2)</f>
+        <v>11.455378572987128</v>
+      </c>
+      <c r="W2" s="9">
+        <f>IF(V2=0,0,S2/V2)</f>
+        <v>4.4964490807254238</v>
+      </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -22097,6 +23161,14 @@
         <f t="shared" ref="U3:U13" si="2">S3/T3</f>
         <v>0.21443024334027497</v>
       </c>
+      <c r="V3" s="9">
+        <f t="shared" ref="V3:V13" si="3">100*Q3/(F3+0.44*J3+Q3)</f>
+        <v>16.699137211244086</v>
+      </c>
+      <c r="W3" s="9">
+        <f t="shared" ref="W3:W13" si="4">IF(V3=0,0,S3/V3)</f>
+        <v>0.50028161641541025</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -22165,6 +23237,14 @@
         <f t="shared" si="2"/>
         <v>0.62396735057013186</v>
       </c>
+      <c r="V4" s="9">
+        <f t="shared" si="3"/>
+        <v>9.7714972940469025</v>
+      </c>
+      <c r="W4" s="9">
+        <f t="shared" si="4"/>
+        <v>1.9094246506357797</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -22233,6 +23313,14 @@
         <f t="shared" si="2"/>
         <v>0.29917295809050776</v>
       </c>
+      <c r="V5" s="9">
+        <f t="shared" si="3"/>
+        <v>18.475750577367208</v>
+      </c>
+      <c r="W5" s="9">
+        <f t="shared" si="4"/>
+        <v>0.55331475787855477</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -22301,6 +23389,14 @@
         <f t="shared" si="2"/>
         <v>0.44244416361292566</v>
       </c>
+      <c r="V6" s="9">
+        <f t="shared" si="3"/>
+        <v>14.88095238095238</v>
+      </c>
+      <c r="W6" s="9">
+        <f t="shared" si="4"/>
+        <v>0.81555713271823993</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -22369,6 +23465,14 @@
         <f t="shared" si="2"/>
         <v>1.9133472090823087</v>
       </c>
+      <c r="V7" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="9">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -22435,6 +23539,14 @@
       </c>
       <c r="U8" s="6">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="9">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -22451,6 +23563,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V9" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S10" s="9" t="e">
@@ -22465,6 +23585,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V10" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S11" s="9" t="e">
@@ -22479,6 +23607,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V11" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S12" s="9" t="e">
@@ -22493,6 +23629,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V12" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S13" s="9" t="e">
@@ -22507,6 +23651,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V13" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -22517,67 +23669,67 @@
         <v>45</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ref="C15:R15" si="3">SUM(C2:C13)</f>
+        <f t="shared" ref="C15:R15" si="5">SUM(C2:C13)</f>
         <v>665</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>645</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>245</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>505</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>36</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>118</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>234</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>290</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>112</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>34</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>84</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>115</v>
       </c>
     </row>
@@ -22594,9 +23746,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41696EE9-C3D2-44E0-8A0D-BC6DB5D8223F}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S2" activeCellId="1" sqref="A2:A7 S2:U7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -22668,7 +23818,12 @@
       <c r="U1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="2"/>
+      <c r="V1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -22754,6 +23909,14 @@
         <f>S2/T2</f>
         <v>0.38088716302350195</v>
       </c>
+      <c r="V2" s="9">
+        <f>100*Q2/(F2+0.44*J2+Q2)</f>
+        <v>9.895391574780886</v>
+      </c>
+      <c r="W2" s="9">
+        <f>IF(V2=0,0,S2/V2)</f>
+        <v>1.6040281576949984</v>
+      </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -22822,6 +23985,14 @@
         <f t="shared" ref="U3:U13" si="2">S3/T3</f>
         <v>1.1426579931121774</v>
       </c>
+      <c r="V3" s="9">
+        <f t="shared" ref="V3:V13" si="3">100*Q3/(F3+0.44*J3+Q3)</f>
+        <v>11.149228130360207</v>
+      </c>
+      <c r="W3" s="9">
+        <f t="shared" ref="W3:W13" si="4">IF(V3=0,0,S3/V3)</f>
+        <v>3.8655445646397286</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -22890,6 +24061,14 @@
         <f t="shared" si="2"/>
         <v>1.2957801227290424</v>
       </c>
+      <c r="V4" s="9">
+        <f t="shared" si="3"/>
+        <v>11.507479861910239</v>
+      </c>
+      <c r="W4" s="9">
+        <f t="shared" si="4"/>
+        <v>2.6505486040265676</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -22958,6 +24137,14 @@
         <f t="shared" si="2"/>
         <v>0.25023710771661295</v>
       </c>
+      <c r="V5" s="9">
+        <f t="shared" si="3"/>
+        <v>15.706806282722512</v>
+      </c>
+      <c r="W5" s="9">
+        <f t="shared" si="4"/>
+        <v>0.43233033334620885</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -23026,6 +24213,14 @@
         <f t="shared" si="2"/>
         <v>1.2440274710141157</v>
       </c>
+      <c r="V6" s="9">
+        <f t="shared" si="3"/>
+        <v>7.5037518759379696</v>
+      </c>
+      <c r="W6" s="9">
+        <f t="shared" si="4"/>
+        <v>6.0793324922377607</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -23093,6 +24288,14 @@
       <c r="U7" s="6">
         <f t="shared" si="2"/>
         <v>0.20710186117068238</v>
+      </c>
+      <c r="V7" s="9">
+        <f t="shared" si="3"/>
+        <v>9.0579710144927539</v>
+      </c>
+      <c r="W7" s="9">
+        <f t="shared" si="4"/>
+        <v>0.7257888635428742</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
@@ -23108,6 +24311,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V8" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S9" s="9" t="e">
@@ -23122,6 +24333,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V9" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S10" s="9" t="e">
@@ -23136,6 +24355,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V10" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S11" s="9" t="e">
@@ -23150,6 +24377,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V11" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S12" s="9" t="e">
@@ -23164,6 +24399,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V12" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S13" s="9" t="e">
@@ -23178,6 +24421,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V13" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -23188,67 +24439,67 @@
         <v>47</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ref="C15:R15" si="3">SUM(C2:C13)</f>
+        <f t="shared" ref="C15:R15" si="5">SUM(C2:C13)</f>
         <v>586</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>578</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>219</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>453</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>155</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>192</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>232</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>109</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>38</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>101</v>
       </c>
     </row>
@@ -23265,9 +24516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B9624EB-3D1F-4D11-AA5C-B32032B93098}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S2" activeCellId="1" sqref="A2:A7 S2:U7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -23339,7 +24588,12 @@
       <c r="U1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="2"/>
+      <c r="V1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -23425,6 +24679,14 @@
         <f>S2/T2</f>
         <v>0.74186770679863201</v>
       </c>
+      <c r="V2" s="9">
+        <f>100*Q2/(F2+0.44*J2+Q2)</f>
+        <v>7.6103500761035008</v>
+      </c>
+      <c r="W2" s="9">
+        <f>IF(V2=0,0,S2/V2)</f>
+        <v>4.0697485384800194</v>
+      </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -23493,6 +24755,14 @@
         <f t="shared" ref="U3:U13" si="2">S3/T3</f>
         <v>0.5868421396786655</v>
       </c>
+      <c r="V3" s="9">
+        <f t="shared" ref="V3:V13" si="3">100*Q3/(F3+0.44*J3+Q3)</f>
+        <v>9.5654550423613003</v>
+      </c>
+      <c r="W3" s="9">
+        <f t="shared" ref="W3:W13" si="4">IF(V3=0,0,S3/V3)</f>
+        <v>2.3774269989298276</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -23561,6 +24831,14 @@
         <f t="shared" si="2"/>
         <v>0.63436041957177647</v>
       </c>
+      <c r="V4" s="9">
+        <f t="shared" si="3"/>
+        <v>9.6053091163115614</v>
+      </c>
+      <c r="W4" s="9">
+        <f t="shared" si="4"/>
+        <v>2.3918897547601365</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -23629,6 +24907,14 @@
         <f t="shared" si="2"/>
         <v>1.2527911078324891</v>
       </c>
+      <c r="V5" s="9">
+        <f t="shared" si="3"/>
+        <v>6.7713976164680387</v>
+      </c>
+      <c r="W5" s="9">
+        <f t="shared" si="4"/>
+        <v>3.988090591385649</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -23697,6 +24983,14 @@
         <f t="shared" si="2"/>
         <v>0.20407005170407611</v>
       </c>
+      <c r="V6" s="9">
+        <f t="shared" si="3"/>
+        <v>9.4197437829691033</v>
+      </c>
+      <c r="W6" s="9">
+        <f t="shared" si="4"/>
+        <v>0.61369130125008098</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -23764,6 +25058,14 @@
       <c r="U7" s="6">
         <f t="shared" si="2"/>
         <v>0.19753931985440024</v>
+      </c>
+      <c r="V7" s="9">
+        <f t="shared" si="3"/>
+        <v>5.6818181818181817</v>
+      </c>
+      <c r="W7" s="9">
+        <f t="shared" si="4"/>
+        <v>0.870816182279323</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
@@ -23779,6 +25081,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V8" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S9" s="9" t="e">
@@ -23793,6 +25103,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V9" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S10" s="9" t="e">
@@ -23807,6 +25125,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V10" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S11" s="9" t="e">
@@ -23821,6 +25147,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V11" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S12" s="9" t="e">
@@ -23835,6 +25169,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V12" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S13" s="9" t="e">
@@ -23849,6 +25191,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V13" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -23859,67 +25209,67 @@
         <v>48</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ref="C15:R15" si="3">SUM(C2:C13)</f>
+        <f t="shared" ref="C15:R15" si="5">SUM(C2:C13)</f>
         <v>595</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>606</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>229</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>165</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>72</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>184</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>236</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>48</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>28</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
     </row>
@@ -23936,9 +25286,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5464E56-64E3-4448-AF19-485FC0F1929B}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S2" activeCellId="1" sqref="A2:A7 S2:U7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -24010,7 +25358,12 @@
       <c r="U1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="2"/>
+      <c r="V1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -24096,6 +25449,14 @@
         <f>S2/T2</f>
         <v>1.2556504228823715</v>
       </c>
+      <c r="V2" s="9">
+        <f>100*Q2/(F2+0.44*J2+Q2)</f>
+        <v>11.122881355932202</v>
+      </c>
+      <c r="W2" s="9">
+        <f>IF(V2=0,0,S2/V2)</f>
+        <v>3.9690276430188534</v>
+      </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -24164,6 +25525,14 @@
         <f t="shared" ref="U3:U13" si="2">S3/T3</f>
         <v>0.34754624701456105</v>
       </c>
+      <c r="V3" s="9">
+        <f t="shared" ref="V3:V13" si="3">100*Q3/(F3+0.44*J3+Q3)</f>
+        <v>10.420006412311638</v>
+      </c>
+      <c r="W3" s="9">
+        <f t="shared" ref="W3:W13" si="4">IF(V3=0,0,S3/V3)</f>
+        <v>1.1507976125881718</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -24232,6 +25601,14 @@
         <f t="shared" si="2"/>
         <v>0.15605897614101033</v>
       </c>
+      <c r="V4" s="9">
+        <f t="shared" si="3"/>
+        <v>2.9423303256178897</v>
+      </c>
+      <c r="W4" s="9">
+        <f t="shared" si="4"/>
+        <v>1.8556119654952341</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -24300,6 +25677,14 @@
         <f t="shared" si="2"/>
         <v>0.51580363105729654</v>
       </c>
+      <c r="V5" s="9">
+        <f t="shared" si="3"/>
+        <v>5.8768218147625761</v>
+      </c>
+      <c r="W5" s="9">
+        <f t="shared" si="4"/>
+        <v>3.2943810775295663</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -24368,6 +25753,14 @@
         <f t="shared" si="2"/>
         <v>0.92955922040269834</v>
       </c>
+      <c r="V6" s="9">
+        <f t="shared" si="3"/>
+        <v>4.6040515653775325</v>
+      </c>
+      <c r="W6" s="9">
+        <f t="shared" si="4"/>
+        <v>5.6037980348282899</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -24435,6 +25828,14 @@
       <c r="U7" s="6">
         <f t="shared" si="2"/>
         <v>0.27654074222874886</v>
+      </c>
+      <c r="V7" s="9">
+        <f t="shared" si="3"/>
+        <v>13.37920489296636</v>
+      </c>
+      <c r="W7" s="9">
+        <f t="shared" si="4"/>
+        <v>0.50094533355284254</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
@@ -24450,6 +25851,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V8" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S9" s="9" t="e">
@@ -24464,6 +25873,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V9" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S10" s="9" t="e">
@@ -24478,6 +25895,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V10" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S11" s="9" t="e">
@@ -24492,6 +25917,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V11" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S12" s="9" t="e">
@@ -24506,6 +25939,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V12" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S13" s="9" t="e">
@@ -24520,6 +25961,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V13" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -24530,67 +25979,67 @@
         <v>48</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ref="C15:R15" si="3">SUM(C2:C13)</f>
+        <f t="shared" ref="C15:R15" si="5">SUM(C2:C13)</f>
         <v>663</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>649</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>242</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>515</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>175</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>180</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>230</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>104</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>51</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>107</v>
       </c>
     </row>
@@ -24607,9 +26056,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03820BAB-8335-40AC-8072-197F21113278}">
   <dimension ref="A1:AN21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S2" activeCellId="1" sqref="A2:A7 S2:U7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -24681,7 +26128,12 @@
       <c r="U1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="V1" s="2"/>
+      <c r="V1" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>115</v>
+      </c>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
@@ -24767,6 +26219,14 @@
         <f>S2/T2</f>
         <v>0.66936940047532856</v>
       </c>
+      <c r="V2" s="9">
+        <f>100*Q2/(F2+0.44*J2+Q2)</f>
+        <v>8.2209799408089452</v>
+      </c>
+      <c r="W2" s="9">
+        <f>IF(V2=0,0,S2/V2)</f>
+        <v>2.5666837092349892</v>
+      </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -24835,6 +26295,14 @@
         <f t="shared" ref="U3:U13" si="2">S3/T3</f>
         <v>0.65833713263895555</v>
       </c>
+      <c r="V3" s="9">
+        <f t="shared" ref="V3:V13" si="3">100*Q3/(F3+0.44*J3+Q3)</f>
+        <v>9.8135426889106974</v>
+      </c>
+      <c r="W3" s="9">
+        <f t="shared" ref="W3:W13" si="4">IF(V3=0,0,S3/V3)</f>
+        <v>2.1897804184511691</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -24903,6 +26371,14 @@
         <f t="shared" si="2"/>
         <v>0.22539795488087708</v>
       </c>
+      <c r="V4" s="9">
+        <f t="shared" si="3"/>
+        <v>10.893246187363834</v>
+      </c>
+      <c r="W4" s="9">
+        <f t="shared" si="4"/>
+        <v>0.80926512096774206</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -24971,6 +26447,14 @@
         <f t="shared" si="2"/>
         <v>0.46436384812290277</v>
       </c>
+      <c r="V5" s="9">
+        <f t="shared" si="3"/>
+        <v>11.7096018735363</v>
+      </c>
+      <c r="W5" s="9">
+        <f t="shared" si="4"/>
+        <v>1.1875539654144305</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -25039,6 +26523,14 @@
         <f t="shared" si="2"/>
         <v>0.71198831043259203</v>
       </c>
+      <c r="V6" s="9">
+        <f t="shared" si="3"/>
+        <v>10.211027910142954</v>
+      </c>
+      <c r="W6" s="9">
+        <f t="shared" si="4"/>
+        <v>2.2040198159943385</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -25106,6 +26598,14 @@
       <c r="U7" s="6">
         <f t="shared" si="2"/>
         <v>0.36864933515500226</v>
+      </c>
+      <c r="V7" s="9">
+        <f t="shared" si="3"/>
+        <v>12.084592145015105</v>
+      </c>
+      <c r="W7" s="9">
+        <f t="shared" si="4"/>
+        <v>1.086349964614296</v>
       </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.25">
@@ -25121,6 +26621,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V8" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W8" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S9" s="9" t="e">
@@ -25135,6 +26643,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V9" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W9" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S10" s="9" t="e">
@@ -25149,6 +26665,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V10" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W10" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S11" s="9" t="e">
@@ -25163,6 +26687,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V11" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W11" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S12" s="9" t="e">
@@ -25177,6 +26709,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V12" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W12" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.25">
       <c r="S13" s="9" t="e">
@@ -25191,6 +26731,14 @@
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="V13" s="9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W13" s="9" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -25201,67 +26749,67 @@
         <v>46</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" ref="C15:R15" si="3">SUM(C2:C13)</f>
+        <f t="shared" ref="C15:R15" si="5">SUM(C2:C13)</f>
         <v>583</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>516</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>210</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>472</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>134</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>33</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>44</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="L15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>179</v>
       </c>
       <c r="M15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>214</v>
       </c>
       <c r="N15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="O15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>35</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>32</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>114</v>
       </c>
     </row>
